--- a/Order/2024/03.xlsx
+++ b/Order/2024/03.xlsx
@@ -2036,8 +2036,8 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2096,7 +2096,8 @@
         <v>1690.95</v>
       </c>
       <c r="I2" s="5">
-        <v>1375</v>
+        <f>1375+315.95</f>
+        <v>1690.95</v>
       </c>
       <c r="J2" s="5">
         <f>IFERROR(IF( SUMIF('03-12'!F:F, F2,'03-12'!L:L)&lt;0, 0, SUMIF('03-12'!F:F, F2,'03-12'!L:L)), 0)</f>
@@ -2107,7 +2108,7 @@
       </c>
       <c r="L2" s="13">
         <f t="shared" ref="L2" si="1">J2+I2-H2</f>
-        <v>-315.95000000000005</v>
+        <v>0</v>
       </c>
       <c r="M2" s="25">
         <v>45370</v>
@@ -2515,7 +2516,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2573,7 +2574,10 @@
         <f t="shared" ref="H2:H11" si="0">IFERROR(SUMIF($A:$A, $F2,$C:$C ), 0)</f>
         <v>1537.23</v>
       </c>
-      <c r="I2" s="5"/>
+      <c r="I2" s="5">
+        <f>1384.05+150</f>
+        <v>1534.05</v>
+      </c>
       <c r="J2" s="5">
         <f>IFERROR(IF( SUMIF('03-12'!F:F, F2,'03-12'!L:L)&lt;0, 0, SUMIF('03-12'!F:F, F2,'03-12'!L:L)), 0)</f>
         <v>0</v>
@@ -2583,7 +2587,7 @@
       </c>
       <c r="L2" s="13">
         <f t="shared" ref="L2:L11" si="1">J2+I2-H2</f>
-        <v>-1537.23</v>
+        <v>-3.1800000000000637</v>
       </c>
       <c r="M2" s="25"/>
     </row>
